--- a/20140604_emd/경상북도/읍면동별 개표자료-03_시도의원-02 포항시남구-포항시6.xlsx
+++ b/20140604_emd/경상북도/읍면동별 개표자료-03_시도의원-02 포항시남구-포항시6.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="24816"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="17400" windowHeight="12495"/>
+    <workbookView xWindow="480" yWindow="80" windowWidth="17400" windowHeight="12500"/>
   </bookViews>
   <sheets>
     <sheet name="도의원(포항시남구)" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="27">
   <si>
     <t>선거구명</t>
   </si>
@@ -34,9 +39,6 @@
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>후 보 자 별 득 표 수</t>
   </si>
   <si>
     <t>유 효 투 표 수 (가)</t>
@@ -114,22 +116,22 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -137,7 +139,7 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -146,7 +148,7 @@
       <b/>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -161,7 +163,7 @@
       <b/>
       <sz val="10"/>
       <color theme="0"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -191,16 +193,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -227,7 +229,19 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -235,24 +249,12 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -543,465 +545,454 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="11" width="13.125" customWidth="1"/>
+    <col min="1" max="11" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="26.25">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="23">
       <c r="A1" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" ht="13.5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="1" customFormat="1">
       <c r="A2" s="3"/>
       <c r="L2" s="4"/>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="4" t="s">
+    </row>
+    <row r="4" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A4" s="5" t="s">
+    <row r="5" spans="1:12" ht="27" customHeight="1">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="10"/>
+    </row>
+    <row r="6" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="8">
+        <v>30764</v>
+      </c>
+      <c r="E6" s="8">
+        <v>16121</v>
+      </c>
+      <c r="F6" s="8">
+        <v>10892</v>
+      </c>
+      <c r="G6" s="8">
+        <v>4749</v>
+      </c>
+      <c r="H6" s="8">
+        <v>15641</v>
+      </c>
+      <c r="I6" s="8">
+        <v>480</v>
+      </c>
+      <c r="J6" s="8">
+        <v>14643</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="8">
+        <v>64</v>
+      </c>
+      <c r="E7" s="8">
+        <v>56</v>
+      </c>
+      <c r="F7" s="8">
+        <v>37</v>
+      </c>
+      <c r="G7" s="8">
+        <v>11</v>
+      </c>
+      <c r="H7" s="8">
+        <v>48</v>
+      </c>
+      <c r="I7" s="8">
+        <v>8</v>
+      </c>
+      <c r="J7" s="8">
+        <v>8</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="8">
+        <v>1446</v>
+      </c>
+      <c r="E8" s="8">
+        <v>1446</v>
+      </c>
+      <c r="F8" s="8">
+        <v>925</v>
+      </c>
+      <c r="G8" s="8">
+        <v>469</v>
+      </c>
+      <c r="H8" s="8">
+        <v>1394</v>
+      </c>
+      <c r="I8" s="8">
+        <v>52</v>
+      </c>
+      <c r="J8" s="8">
         <v>0</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="K8" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="8">
+        <v>25138</v>
+      </c>
+      <c r="E9" s="8">
+        <v>12239</v>
+      </c>
+      <c r="F9" s="8">
+        <v>8321</v>
+      </c>
+      <c r="G9" s="8">
+        <v>3592</v>
+      </c>
+      <c r="H9" s="8">
+        <v>11913</v>
+      </c>
+      <c r="I9" s="8">
+        <v>326</v>
+      </c>
+      <c r="J9" s="8">
+        <v>12899</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="8">
+        <v>1385</v>
+      </c>
+      <c r="E10" s="8">
+        <v>1383</v>
+      </c>
+      <c r="F10" s="8">
+        <v>868</v>
+      </c>
+      <c r="G10" s="8">
+        <v>475</v>
+      </c>
+      <c r="H10" s="8">
+        <v>1343</v>
+      </c>
+      <c r="I10" s="8">
+        <v>40</v>
+      </c>
+      <c r="J10" s="8">
         <v>2</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" s="6" t="s">
+      <c r="K10" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="5"/>
-    </row>
-    <row r="6" spans="1:12" ht="27" customHeight="1">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="5"/>
-    </row>
-    <row r="7" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="10">
-        <v>30764</v>
-      </c>
-      <c r="E7" s="10">
-        <v>16121</v>
-      </c>
-      <c r="F7" s="10">
-        <v>10892</v>
-      </c>
-      <c r="G7" s="10">
-        <v>4749</v>
-      </c>
-      <c r="H7" s="10">
-        <v>15641</v>
-      </c>
-      <c r="I7" s="10">
-        <v>480</v>
-      </c>
-      <c r="J7" s="10">
-        <v>14643</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A8" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="10">
-        <v>64</v>
-      </c>
-      <c r="E8" s="10">
-        <v>56</v>
-      </c>
-      <c r="F8" s="10">
-        <v>37</v>
-      </c>
-      <c r="G8" s="10">
-        <v>11</v>
-      </c>
-      <c r="H8" s="10">
-        <v>48</v>
-      </c>
-      <c r="I8" s="10">
-        <v>8</v>
-      </c>
-      <c r="J8" s="10">
-        <v>8</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A9" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="9" t="s">
+      <c r="B11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="10">
-        <v>1446</v>
-      </c>
-      <c r="E9" s="10">
-        <v>1446</v>
-      </c>
-      <c r="F9" s="10">
-        <v>925</v>
-      </c>
-      <c r="G9" s="10">
-        <v>469</v>
-      </c>
-      <c r="H9" s="10">
-        <v>1394</v>
-      </c>
-      <c r="I9" s="10">
-        <v>52</v>
-      </c>
-      <c r="J9" s="10">
+      <c r="C11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="8">
+        <v>23753</v>
+      </c>
+      <c r="E11" s="8">
+        <v>10856</v>
+      </c>
+      <c r="F11" s="8">
+        <v>7453</v>
+      </c>
+      <c r="G11" s="8">
+        <v>3117</v>
+      </c>
+      <c r="H11" s="8">
+        <v>10570</v>
+      </c>
+      <c r="I11" s="8">
+        <v>286</v>
+      </c>
+      <c r="J11" s="8">
+        <v>12897</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="8">
+        <v>4116</v>
+      </c>
+      <c r="E12" s="8">
+        <v>2378</v>
+      </c>
+      <c r="F12" s="8">
+        <v>1607</v>
+      </c>
+      <c r="G12" s="8">
+        <v>677</v>
+      </c>
+      <c r="H12" s="8">
+        <v>2284</v>
+      </c>
+      <c r="I12" s="8">
+        <v>94</v>
+      </c>
+      <c r="J12" s="8">
+        <v>1738</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="8">
+        <v>314</v>
+      </c>
+      <c r="E13" s="8">
+        <v>314</v>
+      </c>
+      <c r="F13" s="8">
+        <v>196</v>
+      </c>
+      <c r="G13" s="8">
+        <v>102</v>
+      </c>
+      <c r="H13" s="8">
+        <v>298</v>
+      </c>
+      <c r="I13" s="8">
+        <v>16</v>
+      </c>
+      <c r="J13" s="8">
         <v>0</v>
       </c>
-      <c r="K9" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A10" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="10">
-        <v>25138</v>
-      </c>
-      <c r="E10" s="10">
-        <v>12239</v>
-      </c>
-      <c r="F10" s="10">
-        <v>8321</v>
-      </c>
-      <c r="G10" s="10">
-        <v>3592</v>
-      </c>
-      <c r="H10" s="10">
-        <v>11913</v>
-      </c>
-      <c r="I10" s="10">
-        <v>326</v>
-      </c>
-      <c r="J10" s="10">
-        <v>12899</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A11" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="9" t="s">
+      <c r="K13" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="10">
-        <v>1385</v>
-      </c>
-      <c r="E11" s="10">
-        <v>1383</v>
-      </c>
-      <c r="F11" s="10">
-        <v>868</v>
-      </c>
-      <c r="G11" s="10">
-        <v>475</v>
-      </c>
-      <c r="H11" s="10">
-        <v>1343</v>
-      </c>
-      <c r="I11" s="10">
-        <v>40</v>
-      </c>
-      <c r="J11" s="10">
+      <c r="D14" s="8">
+        <v>3802</v>
+      </c>
+      <c r="E14" s="8">
+        <v>2064</v>
+      </c>
+      <c r="F14" s="8">
+        <v>1411</v>
+      </c>
+      <c r="G14" s="8">
+        <v>575</v>
+      </c>
+      <c r="H14" s="8">
+        <v>1986</v>
+      </c>
+      <c r="I14" s="8">
+        <v>78</v>
+      </c>
+      <c r="J14" s="8">
+        <v>1738</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="8">
+        <v>0</v>
+      </c>
+      <c r="E15" s="8">
         <v>2</v>
       </c>
-      <c r="K11" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A12" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="10">
-        <v>23753</v>
-      </c>
-      <c r="E12" s="10">
-        <v>10856</v>
-      </c>
-      <c r="F12" s="10">
-        <v>7453</v>
-      </c>
-      <c r="G12" s="10">
-        <v>3117</v>
-      </c>
-      <c r="H12" s="10">
-        <v>10570</v>
-      </c>
-      <c r="I12" s="10">
-        <v>286</v>
-      </c>
-      <c r="J12" s="10">
-        <v>12897</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A13" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="10">
-        <v>4116</v>
-      </c>
-      <c r="E13" s="10">
-        <v>2378</v>
-      </c>
-      <c r="F13" s="10">
-        <v>1607</v>
-      </c>
-      <c r="G13" s="10">
-        <v>677</v>
-      </c>
-      <c r="H13" s="10">
-        <v>2284</v>
-      </c>
-      <c r="I13" s="10">
-        <v>94</v>
-      </c>
-      <c r="J13" s="10">
-        <v>1738</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A14" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="10">
-        <v>314</v>
-      </c>
-      <c r="E14" s="10">
-        <v>314</v>
-      </c>
-      <c r="F14" s="10">
-        <v>196</v>
-      </c>
-      <c r="G14" s="10">
-        <v>102</v>
-      </c>
-      <c r="H14" s="10">
-        <v>298</v>
-      </c>
-      <c r="I14" s="10">
-        <v>16</v>
-      </c>
-      <c r="J14" s="10">
+      <c r="F15" s="8">
+        <v>2</v>
+      </c>
+      <c r="G15" s="8">
         <v>0</v>
       </c>
-      <c r="K14" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A15" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="10">
-        <v>3802</v>
-      </c>
-      <c r="E15" s="10">
-        <v>2064</v>
-      </c>
-      <c r="F15" s="10">
-        <v>1411</v>
-      </c>
-      <c r="G15" s="10">
-        <v>575</v>
-      </c>
-      <c r="H15" s="10">
-        <v>1986</v>
-      </c>
-      <c r="I15" s="10">
-        <v>78</v>
-      </c>
-      <c r="J15" s="10">
-        <v>1738</v>
-      </c>
-      <c r="K15" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A16" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="10">
+      <c r="H15" s="8">
+        <v>2</v>
+      </c>
+      <c r="I15" s="8">
         <v>0</v>
       </c>
-      <c r="E16" s="10">
-        <v>2</v>
-      </c>
-      <c r="F16" s="10">
-        <v>2</v>
-      </c>
-      <c r="G16" s="10">
-        <v>0</v>
-      </c>
-      <c r="H16" s="10">
-        <v>2</v>
-      </c>
-      <c r="I16" s="10">
-        <v>0</v>
-      </c>
-      <c r="J16" s="10">
+      <c r="J15" s="8">
         <v>-2</v>
       </c>
-      <c r="K16" s="9" t="s">
+      <c r="K15" s="7" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E4:E6"/>
+  <mergeCells count="9">
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:H4"/>
-    <mergeCell ref="F5:H5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>